--- a/joints.xlsx
+++ b/joints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\AI170624\12.09.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7DC360C-FA99-4498-A490-270187840EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E4B9F7-96E2-4ECA-B5D9-311A038AAA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BCF7096-39A7-4FAE-84AD-D6E3E75DDDA0}"/>
+    <workbookView xWindow="31185" yWindow="1770" windowWidth="26415" windowHeight="11955" xr2:uid="{1BCF7096-39A7-4FAE-84AD-D6E3E75DDDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t>John Doe</t>
   </si>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -259,7 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -599,7 +598,7 @@
   <dimension ref="K2:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -656,7 +655,18 @@
         <v>1</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K5">
@@ -672,7 +682,18 @@
         <v>2</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>2018</v>
+      </c>
     </row>
     <row r="6" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K6">
@@ -685,6 +706,18 @@
         <v>40</v>
       </c>
       <c r="N6" s="2"/>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <v>2019</v>
+      </c>
     </row>
     <row r="7" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K7">
@@ -699,7 +732,18 @@
       <c r="N7">
         <v>3</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>2017</v>
+      </c>
     </row>
     <row r="8" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K8">
@@ -712,7 +756,18 @@
         <v>28</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8">
+        <v>2021</v>
+      </c>
     </row>
     <row r="9" spans="11:19" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
@@ -896,11 +951,10 @@
       <c r="M24">
         <v>30</v>
       </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
@@ -923,11 +977,10 @@
       <c r="M25">
         <v>25</v>
       </c>
-      <c r="N25" s="7">
-        <v>2</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7">
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
@@ -1073,11 +1126,10 @@
       <c r="M35">
         <v>30</v>
       </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
@@ -1100,11 +1152,10 @@
       <c r="M36">
         <v>25</v>
       </c>
-      <c r="N36" s="7">
-        <v>2</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7">
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="P36">
         <v>2</v>
       </c>
       <c r="Q36" t="s">
@@ -1244,11 +1295,10 @@
       <c r="M46">
         <v>30</v>
       </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <v>1</v>
       </c>
       <c r="Q46" t="s">
@@ -1271,11 +1321,10 @@
       <c r="M47">
         <v>25</v>
       </c>
-      <c r="N47" s="7">
-        <v>2</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="P47">
         <v>2</v>
       </c>
       <c r="Q47" t="s">

--- a/joints.xlsx
+++ b/joints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\AI170624\12.09.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E4B9F7-96E2-4ECA-B5D9-311A038AAA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A868468-2015-4475-AEAD-747593EB5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31185" yWindow="1770" windowWidth="26415" windowHeight="11955" xr2:uid="{1BCF7096-39A7-4FAE-84AD-D6E3E75DDDA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BCF7096-39A7-4FAE-84AD-D6E3E75DDDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -259,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -598,7 +599,7 @@
   <dimension ref="K2:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -651,10 +652,10 @@
       <c r="M4">
         <v>30</v>
       </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="P4">
         <v>1</v>
       </c>
@@ -678,10 +679,10 @@
       <c r="M5">
         <v>25</v>
       </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="5"/>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
+      <c r="O5" s="7"/>
       <c r="P5">
         <v>2</v>
       </c>
